--- a/medicine/Sexualité et sexologie/La_Famille_au_grand_complet/La_Famille_au_grand_complet.xlsx
+++ b/medicine/Sexualité et sexologie/La_Famille_au_grand_complet/La_Famille_au_grand_complet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Famille au grand complet (家族コンプリート, Kazoku konpurīto) est un film japonais réalisé par Kōichi Imaizumi, sorti en 2010.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un étrange virus déclenche des pulsions sexuelles incestueuses au sein d'une famille japonaise, faisant fi des âges et des genres.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Famille au grand complet
 Titre original : 家族コンプリート (Kazoku konpurīto)
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jinta Fujimaru : le grand-père
 Hotaru : Sayoko
@@ -625,16 +643,18 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a été présenté dans de nombreux festivals :
-Festival international du film de Hong Kong 2010[1]
+Festival international du film de Hong Kong 2010
 Festival international du film fantastique de Puchon 2010, dans la section Forbidden Zone
-Festival international du film de Vancouver 2010, dans la section Dragons and Tigers[1]
-Festival du nouveau cinéma de Montréal 2010[1]
-Golden Horse Film Festival[1]
-Outfest 2011[1]
-Chéries-Chéris 2011 - Sélection officielle en compétition[2]</t>
+Festival international du film de Vancouver 2010, dans la section Dragons and Tigers
+Festival du nouveau cinéma de Montréal 2010
+Golden Horse Film Festival
+Outfest 2011
+Chéries-Chéris 2011 - Sélection officielle en compétition</t>
         </is>
       </c>
     </row>
